--- a/SVD_Files/BKP_VE8.xlsx
+++ b/SVD_Files/BKP_VE8.xlsx
@@ -1731,14 +1731,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1749,70 +1812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,6 +2551,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B21:D21"/>
@@ -2567,24 +2585,6 @@
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2595,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="H10" s="83"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -2724,10 +2724,10 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="H11" s="83"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -2740,8 +2740,8 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="30"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -2783,10 +2783,10 @@
         <v>89</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="81"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
         <v>305</v>
@@ -2803,10 +2803,10 @@
         <v>428</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
         <v>304</v>
@@ -2825,10 +2825,10 @@
         <v>92</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="81"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
         <v>101</v>
@@ -2847,10 +2847,10 @@
         <v>95</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="81"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
         <v>97</v>
@@ -2869,10 +2869,10 @@
         <v>429</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="81"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
         <v>93</v>
@@ -2891,10 +2891,10 @@
         <v>99</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
         <v>92</v>
@@ -2913,10 +2913,10 @@
         <v>101</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="E21" s="81"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
         <v>95</v>
@@ -2935,10 +2935,10 @@
         <v>103</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="103"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="3"/>
       <c r="G22" s="64" t="s">
         <v>71</v>
@@ -2957,13 +2957,13 @@
         <v>105</v>
       </c>
       <c r="C23" s="41"/>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -2973,15 +2973,15 @@
         <v>106</v>
       </c>
       <c r="C24" s="42"/>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="89" t="s">
+      <c r="E24" s="93"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="90"/>
+      <c r="H24" s="97"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2991,11 +2991,11 @@
         <v>107</v>
       </c>
       <c r="C25" s="42"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="90"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -3005,11 +3005,11 @@
         <v>108</v>
       </c>
       <c r="C26" s="36"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="99"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -3019,10 +3019,10 @@
         <v>112</v>
       </c>
       <c r="C27" s="20"/>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="101"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="3"/>
       <c r="G27" s="64" t="s">
         <v>71</v>
@@ -3039,10 +3039,10 @@
         <v>113</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="81"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="3"/>
       <c r="G28" s="64" t="s">
         <v>71</v>
@@ -3125,10 +3125,10 @@
         <v>120</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="81"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="3"/>
       <c r="G33" s="64" t="s">
         <v>71</v>
@@ -3145,10 +3145,10 @@
         <v>125</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="81"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="3"/>
       <c r="G34" s="64" t="s">
         <v>71</v>
@@ -3190,12 +3190,12 @@
       <c r="H36" s="80"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -3212,10 +3212,10 @@
         <v>72</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="83" t="s">
+      <c r="G39" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="H39" s="83"/>
+      <c r="H39" s="81"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -3232,10 +3232,10 @@
         <v>171</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="83" t="s">
+      <c r="G40" s="81" t="s">
         <v>358</v>
       </c>
-      <c r="H40" s="83"/>
+      <c r="H40" s="81"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
@@ -3252,8 +3252,8 @@
         <v>180</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
@@ -3601,10 +3601,10 @@
         <v>143</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="E58" s="104"/>
+      <c r="E58" s="87"/>
       <c r="F58" s="26">
         <v>26</v>
       </c>
@@ -3623,10 +3623,10 @@
         <v>145</v>
       </c>
       <c r="C59" s="39"/>
-      <c r="D59" s="94" t="s">
+      <c r="D59" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="105"/>
+      <c r="E59" s="89"/>
       <c r="F59" s="40">
         <v>27</v>
       </c>
@@ -3645,10 +3645,10 @@
         <v>183</v>
       </c>
       <c r="C60" s="43"/>
-      <c r="D60" s="87" t="s">
+      <c r="D60" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="88"/>
+      <c r="E60" s="91"/>
       <c r="F60" s="27">
         <v>28</v>
       </c>
@@ -3667,8 +3667,8 @@
         <v>153</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="100"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="93"/>
       <c r="F61" s="13">
         <v>29</v>
       </c>
@@ -3687,8 +3687,8 @@
         <v>154</v>
       </c>
       <c r="C62" s="21"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="100"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="93"/>
       <c r="F62" s="13">
         <v>30</v>
       </c>
@@ -3707,8 +3707,8 @@
         <v>155</v>
       </c>
       <c r="C63" s="44"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="105"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="89"/>
       <c r="F63" s="27">
         <v>31</v>
       </c>
@@ -3727,10 +3727,10 @@
         <v>158</v>
       </c>
       <c r="C64" s="43"/>
-      <c r="D64" s="87" t="s">
+      <c r="D64" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="E64" s="88"/>
+      <c r="E64" s="91"/>
       <c r="F64" s="13"/>
       <c r="G64" s="41"/>
       <c r="H64" s="37"/>
@@ -3743,8 +3743,8 @@
         <v>159</v>
       </c>
       <c r="C65" s="21"/>
-      <c r="D65" s="98"/>
-      <c r="E65" s="100"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="93"/>
       <c r="F65" s="33"/>
       <c r="G65" s="42"/>
       <c r="H65" s="38"/>
@@ -3757,8 +3757,8 @@
         <v>160</v>
       </c>
       <c r="C66" s="21"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="100"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="93"/>
       <c r="F66" s="33"/>
       <c r="G66" s="42"/>
       <c r="H66" s="38"/>
@@ -3771,8 +3771,8 @@
         <v>161</v>
       </c>
       <c r="C67" s="44"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="105"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="89"/>
       <c r="F67" s="27"/>
       <c r="G67" s="42"/>
       <c r="H67" s="38"/>
@@ -3785,10 +3785,10 @@
         <v>163</v>
       </c>
       <c r="C68" s="20"/>
-      <c r="D68" s="87" t="s">
+      <c r="D68" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="88"/>
+      <c r="E68" s="91"/>
       <c r="F68" s="19"/>
       <c r="G68" s="42"/>
       <c r="H68" s="38"/>
@@ -3801,8 +3801,8 @@
         <v>164</v>
       </c>
       <c r="C69" s="22"/>
-      <c r="D69" s="98"/>
-      <c r="E69" s="100"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="93"/>
       <c r="F69" s="24"/>
       <c r="G69" s="42"/>
       <c r="H69" s="38"/>
@@ -3815,8 +3815,8 @@
         <v>165</v>
       </c>
       <c r="C70" s="22"/>
-      <c r="D70" s="98"/>
-      <c r="E70" s="100"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="93"/>
       <c r="F70" s="24"/>
       <c r="G70" s="42"/>
       <c r="H70" s="38"/>
@@ -3829,8 +3829,8 @@
         <v>166</v>
       </c>
       <c r="C71" s="23"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="105"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="89"/>
       <c r="F71" s="26"/>
       <c r="G71" s="36"/>
       <c r="H71" s="39"/>
@@ -3853,10 +3853,10 @@
         <v>72</v>
       </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="83" t="s">
+      <c r="G74" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="H74" s="83"/>
+      <c r="H74" s="81"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
@@ -3869,10 +3869,10 @@
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="83" t="s">
+      <c r="G75" s="81" t="s">
         <v>359</v>
       </c>
-      <c r="H75" s="83"/>
+      <c r="H75" s="81"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
@@ -3885,8 +3885,8 @@
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="81"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
@@ -3896,10 +3896,10 @@
         <v>211</v>
       </c>
       <c r="C77" s="43"/>
-      <c r="D77" s="87" t="s">
+      <c r="D77" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="E77" s="97"/>
+      <c r="E77" s="104"/>
       <c r="F77" s="35">
         <v>0</v>
       </c>
@@ -3918,8 +3918,8 @@
         <v>206</v>
       </c>
       <c r="C78" s="21"/>
-      <c r="D78" s="98"/>
-      <c r="E78" s="99"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="94"/>
       <c r="F78" s="35" t="s">
         <v>347</v>
       </c>
@@ -3936,8 +3936,8 @@
         <v>207</v>
       </c>
       <c r="C79" s="21"/>
-      <c r="D79" s="98"/>
-      <c r="E79" s="99"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="94"/>
       <c r="F79" s="35" t="s">
         <v>350</v>
       </c>
@@ -3954,8 +3954,8 @@
         <v>208</v>
       </c>
       <c r="C80" s="44"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="95"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="102"/>
       <c r="F80" s="35">
         <v>7</v>
       </c>
@@ -3974,10 +3974,10 @@
         <v>209</v>
       </c>
       <c r="C81" s="43"/>
-      <c r="D81" s="87" t="s">
+      <c r="D81" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="E81" s="97"/>
+      <c r="E81" s="104"/>
       <c r="F81" s="35" t="s">
         <v>351</v>
       </c>
@@ -3996,8 +3996,8 @@
         <v>210</v>
       </c>
       <c r="C82" s="21"/>
-      <c r="D82" s="98"/>
-      <c r="E82" s="99"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="94"/>
       <c r="F82" s="35">
         <v>13</v>
       </c>
@@ -4016,8 +4016,8 @@
         <v>213</v>
       </c>
       <c r="C83" s="21"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="99"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="94"/>
       <c r="F83" s="35" t="s">
         <v>356</v>
       </c>
@@ -4036,8 +4036,8 @@
         <v>214</v>
       </c>
       <c r="C84" s="44"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="95"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="102"/>
       <c r="F84" s="35" t="s">
         <v>361</v>
       </c>
@@ -4056,10 +4056,10 @@
         <v>216</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="96" t="s">
+      <c r="D85" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="82"/>
+      <c r="E85" s="86"/>
       <c r="F85" s="35">
         <v>24</v>
       </c>
@@ -4078,10 +4078,10 @@
         <v>219</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="96" t="s">
+      <c r="D86" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="E86" s="82"/>
+      <c r="E86" s="86"/>
       <c r="F86" s="35">
         <v>25</v>
       </c>
@@ -4164,8 +4164,8 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="21"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="99"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="94"/>
       <c r="F92" s="69">
         <v>31</v>
       </c>
@@ -4180,8 +4180,8 @@
       <c r="A93" s="33"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="99"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
       <c r="F93" s="21"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,10 +4199,10 @@
         <v>72</v>
       </c>
       <c r="F94" s="9"/>
-      <c r="G94" s="83" t="s">
+      <c r="G94" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="H94" s="83"/>
+      <c r="H94" s="81"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
@@ -4215,10 +4215,10 @@
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="83" t="s">
+      <c r="G95" s="81" t="s">
         <v>378</v>
       </c>
-      <c r="H95" s="83"/>
+      <c r="H95" s="81"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
@@ -4231,8 +4231,8 @@
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
+      <c r="G96" s="81"/>
+      <c r="H96" s="81"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
@@ -4242,10 +4242,10 @@
         <v>228</v>
       </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="81" t="s">
+      <c r="D97" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="E97" s="82"/>
+      <c r="E97" s="86"/>
       <c r="F97" s="35">
         <v>0</v>
       </c>
@@ -4265,10 +4265,10 @@
         <v>229</v>
       </c>
       <c r="C98" s="3"/>
-      <c r="D98" s="81" t="s">
+      <c r="D98" s="84" t="s">
         <v>382</v>
       </c>
-      <c r="E98" s="82"/>
+      <c r="E98" s="86"/>
       <c r="F98" s="35">
         <v>1</v>
       </c>
@@ -4288,10 +4288,10 @@
         <v>230</v>
       </c>
       <c r="C99" s="3"/>
-      <c r="D99" s="81" t="s">
+      <c r="D99" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="E99" s="82"/>
+      <c r="E99" s="86"/>
       <c r="F99" s="35">
         <v>2</v>
       </c>
@@ -4311,10 +4311,10 @@
         <v>231</v>
       </c>
       <c r="C100" s="3"/>
-      <c r="D100" s="81" t="s">
+      <c r="D100" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="82"/>
+      <c r="E100" s="86"/>
       <c r="F100" s="35">
         <v>3</v>
       </c>
@@ -4355,10 +4355,10 @@
         <v>233</v>
       </c>
       <c r="C102" s="3"/>
-      <c r="D102" s="81" t="s">
+      <c r="D102" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="E102" s="82"/>
+      <c r="E102" s="86"/>
       <c r="F102" s="35">
         <v>5</v>
       </c>
@@ -4377,10 +4377,10 @@
         <v>381</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="81" t="s">
+      <c r="D103" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="E103" s="82"/>
+      <c r="E103" s="86"/>
       <c r="F103" s="35">
         <v>6</v>
       </c>
@@ -4399,10 +4399,10 @@
         <v>240</v>
       </c>
       <c r="C104" s="3"/>
-      <c r="D104" s="81" t="s">
+      <c r="D104" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="E104" s="82"/>
+      <c r="E104" s="86"/>
       <c r="F104" s="35">
         <v>7</v>
       </c>
@@ -4421,10 +4421,10 @@
         <v>242</v>
       </c>
       <c r="C105" s="3"/>
-      <c r="D105" s="81" t="s">
+      <c r="D105" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="E105" s="82"/>
+      <c r="E105" s="86"/>
       <c r="F105" s="35">
         <v>8</v>
       </c>
@@ -4443,10 +4443,10 @@
         <v>244</v>
       </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="81" t="s">
+      <c r="D106" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="E106" s="82"/>
+      <c r="E106" s="86"/>
       <c r="F106" s="35">
         <v>9</v>
       </c>
@@ -4465,10 +4465,10 @@
         <v>247</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="81" t="s">
+      <c r="D107" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="E107" s="82"/>
+      <c r="E107" s="86"/>
       <c r="F107" s="35">
         <v>10</v>
       </c>
@@ -4487,10 +4487,10 @@
         <v>246</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="81" t="s">
+      <c r="D108" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="E108" s="82"/>
+      <c r="E108" s="86"/>
       <c r="F108" s="35">
         <v>11</v>
       </c>
@@ -4509,10 +4509,10 @@
         <v>248</v>
       </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="81" t="s">
+      <c r="D109" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="E109" s="82"/>
+      <c r="E109" s="86"/>
       <c r="F109" s="35">
         <v>12</v>
       </c>
@@ -4531,10 +4531,10 @@
         <v>250</v>
       </c>
       <c r="C110" s="3"/>
-      <c r="D110" s="81" t="s">
+      <c r="D110" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="E110" s="82"/>
+      <c r="E110" s="86"/>
       <c r="F110" s="35">
         <v>13</v>
       </c>
@@ -4553,10 +4553,10 @@
         <v>252</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="81" t="s">
+      <c r="D111" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="E111" s="82"/>
+      <c r="E111" s="86"/>
       <c r="F111" s="35" t="s">
         <v>391</v>
       </c>
@@ -4662,12 +4662,12 @@
       <c r="G118" s="70"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D119" s="99"/>
-      <c r="E119" s="99"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="94"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D120" s="99"/>
-      <c r="E120" s="99"/>
+      <c r="D120" s="94"/>
+      <c r="E120" s="94"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
@@ -4730,8 +4730,8 @@
       <c r="G124" s="80"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D125" s="99"/>
-      <c r="E125" s="99"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="94"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
@@ -4984,12 +4984,12 @@
         <v>272</v>
       </c>
       <c r="C145" s="17"/>
-      <c r="D145" s="106" t="s">
+      <c r="D145" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="E145" s="106"/>
-      <c r="F145" s="106"/>
-      <c r="G145" s="106"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
@@ -4999,12 +4999,12 @@
         <v>274</v>
       </c>
       <c r="C146" s="17"/>
-      <c r="D146" s="81" t="s">
+      <c r="D146" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="E146" s="81"/>
-      <c r="F146" s="81"/>
-      <c r="G146" s="81"/>
+      <c r="E146" s="84"/>
+      <c r="F146" s="84"/>
+      <c r="G146" s="84"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
@@ -5014,12 +5014,12 @@
         <v>275</v>
       </c>
       <c r="C147" s="17"/>
-      <c r="D147" s="81" t="s">
+      <c r="D147" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="E147" s="81"/>
-      <c r="F147" s="81"/>
-      <c r="G147" s="81"/>
+      <c r="E147" s="84"/>
+      <c r="F147" s="84"/>
+      <c r="G147" s="84"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="15">
@@ -5029,12 +5029,12 @@
         <v>276</v>
       </c>
       <c r="C148" s="17"/>
-      <c r="D148" s="81" t="s">
+      <c r="D148" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="E148" s="81"/>
-      <c r="F148" s="81"/>
-      <c r="G148" s="81"/>
+      <c r="E148" s="84"/>
+      <c r="F148" s="84"/>
+      <c r="G148" s="84"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
@@ -5044,12 +5044,12 @@
         <v>277</v>
       </c>
       <c r="C149" s="17"/>
-      <c r="D149" s="81" t="s">
+      <c r="D149" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="E149" s="81"/>
-      <c r="F149" s="81"/>
-      <c r="G149" s="81"/>
+      <c r="E149" s="84"/>
+      <c r="F149" s="84"/>
+      <c r="G149" s="84"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
@@ -5059,12 +5059,12 @@
         <v>278</v>
       </c>
       <c r="C150" s="17"/>
-      <c r="D150" s="81" t="s">
+      <c r="D150" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="E150" s="81"/>
-      <c r="F150" s="81"/>
-      <c r="G150" s="81"/>
+      <c r="E150" s="84"/>
+      <c r="F150" s="84"/>
+      <c r="G150" s="84"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
@@ -5074,12 +5074,12 @@
         <v>279</v>
       </c>
       <c r="C151" s="17"/>
-      <c r="D151" s="81" t="s">
+      <c r="D151" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="E151" s="81"/>
-      <c r="F151" s="81"/>
-      <c r="G151" s="81"/>
+      <c r="E151" s="84"/>
+      <c r="F151" s="84"/>
+      <c r="G151" s="84"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
@@ -5089,12 +5089,12 @@
         <v>286</v>
       </c>
       <c r="C152" s="17"/>
-      <c r="D152" s="81" t="s">
+      <c r="D152" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="E152" s="81"/>
-      <c r="F152" s="81"/>
-      <c r="G152" s="81"/>
+      <c r="E152" s="84"/>
+      <c r="F152" s="84"/>
+      <c r="G152" s="84"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
@@ -5104,12 +5104,12 @@
         <v>287</v>
       </c>
       <c r="C153" s="17"/>
-      <c r="D153" s="81" t="s">
+      <c r="D153" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="E153" s="81"/>
-      <c r="F153" s="81"/>
-      <c r="G153" s="81"/>
+      <c r="E153" s="84"/>
+      <c r="F153" s="84"/>
+      <c r="G153" s="84"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
@@ -5119,12 +5119,12 @@
         <v>288</v>
       </c>
       <c r="C154" s="17"/>
-      <c r="D154" s="81" t="s">
+      <c r="D154" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="E154" s="81"/>
-      <c r="F154" s="81"/>
-      <c r="G154" s="81"/>
+      <c r="E154" s="84"/>
+      <c r="F154" s="84"/>
+      <c r="G154" s="84"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
@@ -5134,12 +5134,12 @@
         <v>289</v>
       </c>
       <c r="C155" s="17"/>
-      <c r="D155" s="81" t="s">
+      <c r="D155" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="E155" s="81"/>
-      <c r="F155" s="81"/>
-      <c r="G155" s="81"/>
+      <c r="E155" s="84"/>
+      <c r="F155" s="84"/>
+      <c r="G155" s="84"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
@@ -5149,12 +5149,12 @@
         <v>291</v>
       </c>
       <c r="C156" s="17"/>
-      <c r="D156" s="81" t="s">
+      <c r="D156" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="E156" s="81"/>
-      <c r="F156" s="81"/>
-      <c r="G156" s="81"/>
+      <c r="E156" s="84"/>
+      <c r="F156" s="84"/>
+      <c r="G156" s="84"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
@@ -5164,12 +5164,12 @@
         <v>290</v>
       </c>
       <c r="C157" s="17"/>
-      <c r="D157" s="81" t="s">
+      <c r="D157" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="E157" s="81"/>
-      <c r="F157" s="81"/>
-      <c r="G157" s="81"/>
+      <c r="E157" s="84"/>
+      <c r="F157" s="84"/>
+      <c r="G157" s="84"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
@@ -5179,12 +5179,12 @@
         <v>432</v>
       </c>
       <c r="C158" s="17"/>
-      <c r="D158" s="81" t="s">
+      <c r="D158" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="E158" s="81"/>
-      <c r="F158" s="81"/>
-      <c r="G158" s="81"/>
+      <c r="E158" s="84"/>
+      <c r="F158" s="84"/>
+      <c r="G158" s="84"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
@@ -5194,12 +5194,12 @@
         <v>292</v>
       </c>
       <c r="C159" s="17"/>
-      <c r="D159" s="81" t="s">
+      <c r="D159" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="E159" s="81"/>
-      <c r="F159" s="81"/>
-      <c r="G159" s="81"/>
+      <c r="E159" s="84"/>
+      <c r="F159" s="84"/>
+      <c r="G159" s="84"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
@@ -5209,12 +5209,12 @@
         <v>122</v>
       </c>
       <c r="C160" s="17"/>
-      <c r="D160" s="81" t="s">
+      <c r="D160" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="E160" s="81"/>
-      <c r="F160" s="81"/>
-      <c r="G160" s="81"/>
+      <c r="E160" s="84"/>
+      <c r="F160" s="84"/>
+      <c r="G160" s="84"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
@@ -5224,10 +5224,10 @@
         <v>203</v>
       </c>
       <c r="C164" s="9"/>
-      <c r="D164" s="83" t="s">
+      <c r="D164" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="E164" s="83"/>
+      <c r="E164" s="81"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
@@ -5237,8 +5237,8 @@
         <v>205</v>
       </c>
       <c r="C165" s="9"/>
-      <c r="D165" s="83"/>
-      <c r="E165" s="83"/>
+      <c r="D165" s="81"/>
+      <c r="E165" s="81"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="31" t="s">
@@ -5248,8 +5248,8 @@
         <v>204</v>
       </c>
       <c r="C166" s="9"/>
-      <c r="D166" s="107"/>
-      <c r="E166" s="108"/>
+      <c r="D166" s="82"/>
+      <c r="E166" s="83"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="35" t="s">
@@ -5259,10 +5259,10 @@
         <v>403</v>
       </c>
       <c r="C167" s="3"/>
-      <c r="D167" s="81" t="s">
+      <c r="D167" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="E167" s="81"/>
+      <c r="E167" s="84"/>
       <c r="I167" s="21"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5273,10 +5273,10 @@
         <v>232</v>
       </c>
       <c r="C168" s="3"/>
-      <c r="D168" s="81" t="s">
+      <c r="D168" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="E168" s="81"/>
+      <c r="E168" s="84"/>
       <c r="I168" s="54"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5287,10 +5287,10 @@
         <v>252</v>
       </c>
       <c r="C169" s="3"/>
-      <c r="D169" s="81" t="s">
+      <c r="D169" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="E169" s="81"/>
+      <c r="E169" s="84"/>
       <c r="I169" s="54"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,10 +5301,10 @@
         <v>406</v>
       </c>
       <c r="C170" s="3"/>
-      <c r="D170" s="81" t="s">
+      <c r="D170" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="E170" s="81"/>
+      <c r="E170" s="84"/>
       <c r="I170" s="54"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5315,10 +5315,10 @@
         <v>412</v>
       </c>
       <c r="C171" s="3"/>
-      <c r="D171" s="81" t="s">
+      <c r="D171" s="84" t="s">
         <v>414</v>
       </c>
-      <c r="E171" s="81"/>
+      <c r="E171" s="84"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="35" t="s">
@@ -5328,10 +5328,10 @@
         <v>413</v>
       </c>
       <c r="C172" s="3"/>
-      <c r="D172" s="81" t="s">
+      <c r="D172" s="84" t="s">
         <v>415</v>
       </c>
-      <c r="E172" s="81"/>
+      <c r="E172" s="84"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
@@ -5341,10 +5341,10 @@
         <v>416</v>
       </c>
       <c r="C175" s="9"/>
-      <c r="D175" s="83" t="s">
+      <c r="D175" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="E175" s="83"/>
+      <c r="E175" s="81"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
@@ -5354,8 +5354,8 @@
         <v>66</v>
       </c>
       <c r="C176" s="9"/>
-      <c r="D176" s="83"/>
-      <c r="E176" s="83"/>
+      <c r="D176" s="81"/>
+      <c r="E176" s="81"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="31" t="s">
@@ -5365,8 +5365,8 @@
         <v>67</v>
       </c>
       <c r="C177" s="9"/>
-      <c r="D177" s="107"/>
-      <c r="E177" s="108"/>
+      <c r="D177" s="82"/>
+      <c r="E177" s="83"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="35">
@@ -5376,10 +5376,10 @@
         <v>346</v>
       </c>
       <c r="C178" s="3"/>
-      <c r="D178" s="81" t="s">
+      <c r="D178" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="E178" s="81"/>
+      <c r="E178" s="84"/>
       <c r="I178" s="21"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5390,8 +5390,8 @@
         <v>348</v>
       </c>
       <c r="C179" s="3"/>
-      <c r="D179" s="81"/>
-      <c r="E179" s="81"/>
+      <c r="D179" s="84"/>
+      <c r="E179" s="84"/>
       <c r="I179" s="54"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5402,8 +5402,8 @@
         <v>417</v>
       </c>
       <c r="C180" s="3"/>
-      <c r="D180" s="81"/>
-      <c r="E180" s="81"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="84"/>
       <c r="I180" s="54"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5414,10 +5414,10 @@
         <v>418</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="81" t="s">
+      <c r="D181" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="E181" s="81"/>
+      <c r="E181" s="84"/>
       <c r="I181" s="54"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -5428,10 +5428,10 @@
         <v>419</v>
       </c>
       <c r="C182" s="3"/>
-      <c r="D182" s="81" t="s">
+      <c r="D182" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="E182" s="81"/>
+      <c r="E182" s="84"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="35">
@@ -5441,47 +5441,81 @@
         <v>420</v>
       </c>
       <c r="C183" s="3"/>
-      <c r="D183" s="81" t="s">
+      <c r="D183" s="84" t="s">
         <v>421</v>
       </c>
-      <c r="E183" s="81"/>
+      <c r="E183" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D153:G153"/>
-    <mergeCell ref="D154:G154"/>
-    <mergeCell ref="D155:G155"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="D157:G157"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="D149:G149"/>
-    <mergeCell ref="D150:G150"/>
-    <mergeCell ref="D151:G151"/>
-    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="G96:H96"/>
@@ -5506,74 +5540,40 @@
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="D149:G149"/>
+    <mergeCell ref="D150:G150"/>
+    <mergeCell ref="D151:G151"/>
+    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D153:G153"/>
+    <mergeCell ref="D154:G154"/>
+    <mergeCell ref="D155:G155"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="D157:G157"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
